--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>283.050146156886</v>
+        <v>550.056952</v>
       </c>
       <c r="N2">
-        <v>283.050146156886</v>
+        <v>1650.170856</v>
       </c>
       <c r="O2">
-        <v>0.8859630428560544</v>
+        <v>0.9236787975512361</v>
       </c>
       <c r="P2">
-        <v>0.8859630428560544</v>
+        <v>0.9236787975512361</v>
       </c>
       <c r="Q2">
-        <v>469.8718642363782</v>
+        <v>3340.017870004712</v>
       </c>
       <c r="R2">
-        <v>469.8718642363782</v>
+        <v>30060.16083004241</v>
       </c>
       <c r="S2">
-        <v>0.0009617719740688084</v>
+        <v>0.003642988500519189</v>
       </c>
       <c r="T2">
-        <v>0.0009617719740688084</v>
+        <v>0.003642988500519188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>36.4328711532098</v>
+        <v>1.448019333333334</v>
       </c>
       <c r="N3">
-        <v>36.4328711532098</v>
+        <v>4.344058</v>
       </c>
       <c r="O3">
-        <v>0.1140369571439455</v>
+        <v>0.002431575042877152</v>
       </c>
       <c r="P3">
-        <v>0.1140369571439455</v>
+        <v>0.002431575042877152</v>
       </c>
       <c r="Q3">
-        <v>60.47967584780558</v>
+        <v>8.792563082532668</v>
       </c>
       <c r="R3">
-        <v>60.47967584780558</v>
+        <v>79.13306774279401</v>
       </c>
       <c r="S3">
-        <v>0.0001237947228990141</v>
+        <v>9.590130186851625E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001237947228990141</v>
+        <v>9.590130186851623E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1476.30280581482</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1476.30280581482</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>283.050146156886</v>
+        <v>44.00177133333333</v>
       </c>
       <c r="N4">
-        <v>283.050146156886</v>
+        <v>132.005314</v>
       </c>
       <c r="O4">
-        <v>0.8859630428560544</v>
+        <v>0.07388962740588682</v>
       </c>
       <c r="P4">
-        <v>0.8859630428560544</v>
+        <v>0.07388962740588684</v>
       </c>
       <c r="Q4">
-        <v>417867.7249577057</v>
+        <v>267.1845197680447</v>
       </c>
       <c r="R4">
-        <v>417867.7249577057</v>
+        <v>2404.660677912402</v>
       </c>
       <c r="S4">
-        <v>0.8553256692340151</v>
+        <v>0.0002914206363304144</v>
       </c>
       <c r="T4">
-        <v>0.8553256692340151</v>
+        <v>0.0002914206363304144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.4328711532098</v>
+        <v>550.056952</v>
       </c>
       <c r="N5">
-        <v>36.4328711532098</v>
+        <v>1650.170856</v>
       </c>
       <c r="O5">
-        <v>0.1140369571439455</v>
+        <v>0.9236787975512361</v>
       </c>
       <c r="P5">
-        <v>0.1140369571439455</v>
+        <v>0.9236787975512361</v>
       </c>
       <c r="Q5">
-        <v>53785.94990737345</v>
+        <v>814552.83113876</v>
       </c>
       <c r="R5">
-        <v>53785.94990737345</v>
+        <v>7330975.48024884</v>
       </c>
       <c r="S5">
-        <v>0.1100934598492088</v>
+        <v>0.8884403354703203</v>
       </c>
       <c r="T5">
-        <v>0.1100934598492088</v>
+        <v>0.8884403354703201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>283.050146156886</v>
+        <v>1.448019333333334</v>
       </c>
       <c r="N6">
-        <v>283.050146156886</v>
+        <v>4.344058</v>
       </c>
       <c r="O6">
-        <v>0.8859630428560544</v>
+        <v>0.002431575042877152</v>
       </c>
       <c r="P6">
-        <v>0.8859630428560544</v>
+        <v>0.002431575042877152</v>
       </c>
       <c r="Q6">
-        <v>14497.95860621579</v>
+        <v>2144.302045854929</v>
       </c>
       <c r="R6">
-        <v>14497.95860621579</v>
+        <v>19298.71841269436</v>
       </c>
       <c r="S6">
-        <v>0.02967560164797049</v>
+        <v>0.002338810149742778</v>
       </c>
       <c r="T6">
-        <v>0.02967560164797049</v>
+        <v>0.002338810149742778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.4328711532098</v>
+        <v>44.00177133333333</v>
       </c>
       <c r="N7">
-        <v>36.4328711532098</v>
+        <v>132.005314</v>
       </c>
       <c r="O7">
-        <v>0.1140369571439455</v>
+        <v>0.07388962740588682</v>
       </c>
       <c r="P7">
-        <v>0.1140369571439455</v>
+        <v>0.07388962740588684</v>
       </c>
       <c r="Q7">
-        <v>1866.108408903851</v>
+        <v>65160.1025755002</v>
       </c>
       <c r="R7">
-        <v>1866.108408903851</v>
+        <v>586440.9231795018</v>
       </c>
       <c r="S7">
-        <v>0.003819702571837682</v>
+        <v>0.07107072884459241</v>
       </c>
       <c r="T7">
-        <v>0.003819702571837682</v>
+        <v>0.0710707288445924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>52.663316</v>
+      </c>
+      <c r="H8">
+        <v>157.989948</v>
+      </c>
+      <c r="I8">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J8">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>550.056952</v>
+      </c>
+      <c r="N8">
+        <v>1650.170856</v>
+      </c>
+      <c r="O8">
+        <v>0.9236787975512361</v>
+      </c>
+      <c r="P8">
+        <v>0.9236787975512361</v>
+      </c>
+      <c r="Q8">
+        <v>28967.82308117284</v>
+      </c>
+      <c r="R8">
+        <v>260710.4077305555</v>
+      </c>
+      <c r="S8">
+        <v>0.03159547358039677</v>
+      </c>
+      <c r="T8">
+        <v>0.03159547358039676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>52.663316</v>
+      </c>
+      <c r="H9">
+        <v>157.989948</v>
+      </c>
+      <c r="I9">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J9">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.448019333333334</v>
+      </c>
+      <c r="N9">
+        <v>4.344058</v>
+      </c>
+      <c r="O9">
+        <v>0.002431575042877152</v>
+      </c>
+      <c r="P9">
+        <v>0.002431575042877152</v>
+      </c>
+      <c r="Q9">
+        <v>76.25749972544268</v>
+      </c>
+      <c r="R9">
+        <v>686.3174975289841</v>
+      </c>
+      <c r="S9">
+        <v>8.317476294752307E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.317476294752304E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>52.663316</v>
+      </c>
+      <c r="H10">
+        <v>157.989948</v>
+      </c>
+      <c r="I10">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J10">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.00177133333333</v>
+      </c>
+      <c r="N10">
+        <v>132.005314</v>
+      </c>
+      <c r="O10">
+        <v>0.07388962740588682</v>
+      </c>
+      <c r="P10">
+        <v>0.07388962740588684</v>
+      </c>
+      <c r="Q10">
+        <v>2317.279188287075</v>
+      </c>
+      <c r="R10">
+        <v>20855.51269458367</v>
+      </c>
+      <c r="S10">
+        <v>0.002527477924964019</v>
+      </c>
+      <c r="T10">
+        <v>0.002527477924964019</v>
       </c>
     </row>
   </sheetData>
